--- a/NC State Senate/SD11/Results.xlsx
+++ b/NC State Senate/SD11/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echen\Documents\GitHub\QGIS-Politics\NC State Senate\SD11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6D5C96-6D1D-4638-94E3-DB20382BB62B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9AB8E6-6523-45DB-B9C4-6D924B271D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 Results" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="54">
   <si>
     <t>County</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>% POP</t>
@@ -1889,7 +1886,7 @@
         <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1993,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3331EBEA-1A31-4265-B442-6E3FEC5E772C}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2004,7 +2001,7 @@
     <col min="6" max="8" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2030,7 +2027,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2056,7 @@
         <v>-0.2620650953984287</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2067,13 +2064,13 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>1546</v>
+        <v>773</v>
       </c>
       <c r="D3">
-        <v>1769</v>
+        <v>884.5</v>
       </c>
       <c r="E3">
-        <v>3466</v>
+        <v>1733</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F45" si="0">C3/E3</f>
@@ -2087,31 +2084,37 @@
         <f t="shared" ref="H3:H45" si="2">(C3-D3)/E3</f>
         <v>-6.4339296018465095E-2</v>
       </c>
-      <c r="I3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>773</v>
+      </c>
+      <c r="D4">
+        <v>884.5</v>
+      </c>
+      <c r="E4">
+        <v>1733</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44604731679169068</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>0.51038661281015585</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.4339296018465095E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>-0.19468621163536418</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>-0.11981981981981982</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>-0.27889207258834764</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2230,7 @@
         <v>-0.63651226158038143</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -2256,7 +2259,7 @@
         <v>-0.48137802607076352</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2285,7 +2288,7 @@
         <v>0.2095435684647303</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>2.7272727272727271E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -2343,7 +2346,7 @@
         <v>0.28358208955223879</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -2351,13 +2354,13 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>1391</v>
+        <v>695.5</v>
       </c>
       <c r="D13">
-        <v>1751</v>
+        <v>875.5</v>
       </c>
       <c r="E13">
-        <v>3245</v>
+        <v>1622.5</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
@@ -2371,31 +2374,37 @@
         <f t="shared" si="2"/>
         <v>-0.11093990755007704</v>
       </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>695.5</v>
+      </c>
+      <c r="D14">
+        <v>875.5</v>
+      </c>
+      <c r="E14">
+        <v>1622.5</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.42865947611710326</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5395993836671803</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.11093990755007704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2424,7 +2433,7 @@
         <v>-0.28796012269938648</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3306,7 +3315,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD717050-44A9-4A98-918C-55F3C2D3D742}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -3335,7 +3344,7 @@
         <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3360,7 +3369,7 @@
         <v>0.58035489554492825</v>
       </c>
       <c r="G2" s="2">
-        <f t="shared" ref="G2:I4" si="2">(B2-C2)/D2</f>
+        <f t="shared" ref="G2:G4" si="2">(B2-C2)/D2</f>
         <v>-0.19980703079117376</v>
       </c>
       <c r="H2" s="2">
@@ -3441,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3BBFEB-D463-45DB-AA0B-421B84B5CFB0}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD47"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4765,7 +4774,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H4"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4793,7 +4802,7 @@
         <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
